--- a/medicine/Médecine vétérinaire/Pachysentis_gethi/Pachysentis_gethi.xlsx
+++ b/medicine/Médecine vétérinaire/Pachysentis_gethi/Pachysentis_gethi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pachysentis gethi est une espèce d'acanthocéphales de la famille des Oligacanthorhynchidae. C'est un parasite digestif d'un Mustélidé (Eira barbara[3]) du Brésil[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachysentis gethi est une espèce d'acanthocéphales de la famille des Oligacanthorhynchidae. C'est un parasite digestif d'un Mustélidé (Eira barbara) du Brésil.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, gethi, lui a été donné en l'honneur du Dr. Geth Jansen[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, gethi, lui a été donné en l'honneur du Dr. Geth Jansen.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(pt) Domingos Arthur Machado Filho, « Revisão do gênero Prosthenorchis Travassos, 1915 (Acanthocephala) », Memórias do Instituto Oswaldo Cruz, Rio de Janeiro, Institut Oswaldo-Cruz et Instituto Oswaldo Cruz, Ministério da Saúde (d), vol. 48,‎ 1er janvier 1950, p. 495-544 (ISSN 0074-0276 et 1678-8060, OCLC 1197361, PMID 24539413, DOI 10.1590/S0074-02761950000100020, lire en ligne)</t>
         </is>
